--- a/medicine/Handicap/La_Brute_(film,_1987)/La_Brute_(film,_1987).xlsx
+++ b/medicine/Handicap/La_Brute_(film,_1987)/La_Brute_(film,_1987).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brute est un film français réalisé par Claude Guillemot, sorti en 1987. Ce film est une adaptation du roman éponyme de Guy des Cars paru en 1951.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Vauthier est aveugle, sourd et muet de naissance. Avec l'aide de sa femme, il a pu produire une autobiographie qui rencontre un vif succès. Sur le bateau où ils ont embarqué pour une croisière, un meurtre est commis. Jacques est retrouvé dans la chambre de la victime, maculé de sang, l'arme à la main. Après le désistement de plusieurs de ses confrères, maître Deliot, un avocat sans grande envergure, accepte de reprendre le dossier. Il a du mal à croire à la culpabilité de Jacques Vauthier.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Brute
 Réalisation : Claude Guillemot
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Xavier Deluc : Jacques Vauthier
 Assumpta Serna : Solange Vauthier
